--- a/2022 data/optimisation_results/VRES_and_TOTAL_CONSUMPTION.xlsx
+++ b/2022 data/optimisation_results/VRES_and_TOTAL_CONSUMPTION.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitabelyak/Dropbox (Aalto)/TSEP/illustrative example/2022 data/optimisation_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E878A99D-064F-3C4E-B86F-543AD73306DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8486330-C2ED-414F-B197-6B6319E5860F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-1240" windowWidth="38400" windowHeight="24000" xr2:uid="{4D1FE4D9-21A8-AC4D-A00E-68C4E3558728}"/>
+    <workbookView xWindow="33600" yWindow="-780" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{4D1FE4D9-21A8-AC4D-A00E-68C4E3558728}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="pairwise comparison" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="17">
   <si>
     <t xml:space="preserve">CENTRALISED PLANNER </t>
   </si>
@@ -72,6 +72,21 @@
   <si>
     <t>GENERATION CAPACITY EXPANSION BUDGET 1M</t>
   </si>
+  <si>
+    <t>VRES SHARE IN TOTAL GENERATION MIX (%)</t>
+  </si>
+  <si>
+    <t>TOTAL CONSUMPTION (MW)</t>
+  </si>
+  <si>
+    <t>VRES SHARE CHANGE COMPARED TO THE "BASE CASE"* (%)</t>
+  </si>
+  <si>
+    <t>TOTAL CONSUMPTION CHANGE COMPARED TO THE "BASE CASE"* (%)</t>
+  </si>
+  <si>
+    <t>*"BASE CASE" is the case when zero taxes and zero incentives are introduced and the budget for transmission infrastructure expansion is set to be 100K</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +143,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,25 +252,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -258,15 +289,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,106 +608,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4C6AF9-640F-0549-BF6B-ADFA12C1B617}">
   <dimension ref="A2:AA74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="O4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
+      <c r="A4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="O4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="O6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="O6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
@@ -713,33 +737,33 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="8" t="s">
+      <c r="X8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
@@ -792,10 +816,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="9">
         <v>0</v>
       </c>
       <c r="C10" s="3">
@@ -810,10 +834,10 @@
       <c r="F10" s="3">
         <v>31</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="9">
         <v>0</v>
       </c>
       <c r="J10" s="3">
@@ -828,10 +852,10 @@
       <c r="M10" s="3">
         <v>31</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="9">
         <v>0</v>
       </c>
       <c r="Q10" s="3">
@@ -846,10 +870,10 @@
       <c r="T10" s="3">
         <v>28750.6</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="9">
         <v>0</v>
       </c>
       <c r="X10" s="3">
@@ -866,8 +890,8 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="2">
         <v>27</v>
       </c>
@@ -880,8 +904,8 @@
       <c r="F11" s="2">
         <v>27</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="5"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="2">
         <v>27</v>
       </c>
@@ -894,8 +918,8 @@
       <c r="M11" s="2">
         <v>27</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="5"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="2">
         <v>27205</v>
       </c>
@@ -908,8 +932,8 @@
       <c r="T11" s="2">
         <v>27205</v>
       </c>
-      <c r="V11" s="7"/>
-      <c r="W11" s="5"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="10"/>
       <c r="X11" s="2">
         <v>27205</v>
       </c>
@@ -924,8 +948,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9">
         <v>50</v>
       </c>
       <c r="C12" s="3">
@@ -940,8 +964,8 @@
       <c r="F12" s="3">
         <v>31</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="6">
+      <c r="H12" s="8"/>
+      <c r="I12" s="9">
         <v>50</v>
       </c>
       <c r="J12" s="3">
@@ -956,8 +980,8 @@
       <c r="M12" s="3">
         <v>45</v>
       </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="6">
+      <c r="O12" s="8"/>
+      <c r="P12" s="9">
         <v>50</v>
       </c>
       <c r="Q12" s="3">
@@ -972,8 +996,8 @@
       <c r="T12" s="3">
         <v>28649.4</v>
       </c>
-      <c r="V12" s="7"/>
-      <c r="W12" s="6">
+      <c r="V12" s="8"/>
+      <c r="W12" s="9">
         <v>50</v>
       </c>
       <c r="X12" s="3">
@@ -990,8 +1014,8 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="2">
         <v>27</v>
       </c>
@@ -1004,8 +1028,8 @@
       <c r="F13" s="2">
         <v>27</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="5"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="2">
         <v>27</v>
       </c>
@@ -1018,8 +1042,8 @@
       <c r="M13" s="2">
         <v>41</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="5"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="10"/>
       <c r="Q13" s="2">
         <v>27205</v>
       </c>
@@ -1032,8 +1056,8 @@
       <c r="T13" s="2">
         <v>27205</v>
       </c>
-      <c r="V13" s="7"/>
-      <c r="W13" s="5"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="10"/>
       <c r="X13" s="2">
         <v>27205</v>
       </c>
@@ -1048,8 +1072,8 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9">
         <v>100</v>
       </c>
       <c r="C14" s="3">
@@ -1064,8 +1088,8 @@
       <c r="F14" s="3">
         <v>35</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="6">
+      <c r="H14" s="8"/>
+      <c r="I14" s="9">
         <v>100</v>
       </c>
       <c r="J14" s="3">
@@ -1080,8 +1104,8 @@
       <c r="M14" s="3">
         <v>45</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="6">
+      <c r="O14" s="8"/>
+      <c r="P14" s="9">
         <v>100</v>
       </c>
       <c r="Q14" s="3">
@@ -1096,8 +1120,8 @@
       <c r="T14" s="3">
         <v>26829.7</v>
       </c>
-      <c r="V14" s="7"/>
-      <c r="W14" s="6">
+      <c r="V14" s="8"/>
+      <c r="W14" s="9">
         <v>100</v>
       </c>
       <c r="X14" s="3">
@@ -1114,8 +1138,8 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="4">
         <v>27</v>
       </c>
@@ -1128,8 +1152,8 @@
       <c r="F15" s="4">
         <v>29</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="5"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="4">
         <v>27</v>
       </c>
@@ -1142,8 +1166,8 @@
       <c r="M15" s="4">
         <v>41</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="5"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="10"/>
       <c r="Q15" s="4">
         <v>27205</v>
       </c>
@@ -1156,8 +1180,8 @@
       <c r="T15" s="4">
         <v>26966.6</v>
       </c>
-      <c r="V15" s="7"/>
-      <c r="W15" s="5"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="10"/>
       <c r="X15" s="4">
         <v>27205</v>
       </c>
@@ -1172,36 +1196,36 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="O17" s="9" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="O17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
@@ -1231,33 +1255,33 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="8" t="s">
+      <c r="X19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
@@ -1310,40 +1334,40 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="9">
         <v>0</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="9">
         <v>0</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="9">
         <v>0</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="V21" s="7" t="s">
+      <c r="V21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="W21" s="6">
+      <c r="W21" s="9">
         <v>0</v>
       </c>
       <c r="X21" s="3"/>
@@ -1352,58 +1376,58 @@
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="5"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="5"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="10"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="5"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="10"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9">
         <v>50</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="6">
+      <c r="H23" s="8"/>
+      <c r="I23" s="9">
         <v>50</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="6">
+      <c r="O23" s="8"/>
+      <c r="P23" s="9">
         <v>50</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="6">
+      <c r="V23" s="8"/>
+      <c r="W23" s="9">
         <v>50</v>
       </c>
       <c r="X23" s="3"/>
@@ -1412,58 +1436,58 @@
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="5"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="5"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="10"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="5"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="10"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9">
         <v>100</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="6">
+      <c r="H25" s="8"/>
+      <c r="I25" s="9">
         <v>100</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="6">
+      <c r="O25" s="8"/>
+      <c r="P25" s="9">
         <v>100</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="6">
+      <c r="V25" s="8"/>
+      <c r="W25" s="9">
         <v>100</v>
       </c>
       <c r="X25" s="3"/>
@@ -1472,62 +1496,62 @@
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="5"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="5"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="10"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="5"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="10"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="O28" s="9" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="O28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
@@ -1557,33 +1581,33 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="8" t="s">
+      <c r="Q30" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="8" t="s">
+      <c r="X30" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C31" s="2">
@@ -1636,10 +1660,10 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="9">
         <v>0</v>
       </c>
       <c r="C32" s="3">
@@ -1654,10 +1678,10 @@
       <c r="F32" s="3">
         <v>31</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="9">
         <v>0</v>
       </c>
       <c r="J32" s="3">
@@ -1672,10 +1696,10 @@
       <c r="M32" s="3">
         <v>31</v>
       </c>
-      <c r="O32" s="7" t="s">
+      <c r="O32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="9">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
@@ -1690,10 +1714,10 @@
       <c r="T32" s="3">
         <v>28750.6</v>
       </c>
-      <c r="V32" s="7" t="s">
+      <c r="V32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="W32" s="6">
+      <c r="W32" s="9">
         <v>0</v>
       </c>
       <c r="X32" s="3">
@@ -1710,8 +1734,8 @@
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="2">
         <v>27</v>
       </c>
@@ -1724,8 +1748,8 @@
       <c r="F33" s="2">
         <v>27</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="5"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="2">
         <v>27</v>
       </c>
@@ -1738,8 +1762,8 @@
       <c r="M33" s="2">
         <v>27</v>
       </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="5"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="10"/>
       <c r="Q33" s="2">
         <v>27205</v>
       </c>
@@ -1752,8 +1776,8 @@
       <c r="T33" s="2">
         <v>27205</v>
       </c>
-      <c r="V33" s="7"/>
-      <c r="W33" s="5"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="10"/>
       <c r="X33" s="2">
         <v>27205</v>
       </c>
@@ -1768,8 +1792,8 @@
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9">
         <v>50</v>
       </c>
       <c r="C34" s="3">
@@ -1784,8 +1808,8 @@
       <c r="F34" s="3">
         <v>31</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="6">
+      <c r="H34" s="8"/>
+      <c r="I34" s="9">
         <v>50</v>
       </c>
       <c r="J34" s="3">
@@ -1800,8 +1824,8 @@
       <c r="M34" s="3">
         <v>45</v>
       </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="6">
+      <c r="O34" s="8"/>
+      <c r="P34" s="9">
         <v>50</v>
       </c>
       <c r="Q34" s="3">
@@ -1816,8 +1840,8 @@
       <c r="T34" s="3">
         <v>28750.6</v>
       </c>
-      <c r="V34" s="7"/>
-      <c r="W34" s="6">
+      <c r="V34" s="8"/>
+      <c r="W34" s="9">
         <v>50</v>
       </c>
       <c r="X34" s="3">
@@ -1834,8 +1858,8 @@
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="2">
         <v>27</v>
       </c>
@@ -1848,8 +1872,8 @@
       <c r="F35" s="2">
         <v>27</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="5"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="10"/>
       <c r="J35" s="2">
         <v>27</v>
       </c>
@@ -1862,8 +1886,8 @@
       <c r="M35" s="2">
         <v>41</v>
       </c>
-      <c r="O35" s="7"/>
-      <c r="P35" s="5"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="10"/>
       <c r="Q35" s="2">
         <v>27205</v>
       </c>
@@ -1876,8 +1900,8 @@
       <c r="T35" s="2">
         <v>27205</v>
       </c>
-      <c r="V35" s="7"/>
-      <c r="W35" s="5"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="10"/>
       <c r="X35" s="2">
         <v>27205</v>
       </c>
@@ -1892,8 +1916,8 @@
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="6">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9">
         <v>100</v>
       </c>
       <c r="C36" s="3">
@@ -1908,8 +1932,8 @@
       <c r="F36" s="3">
         <v>33</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="6">
+      <c r="H36" s="8"/>
+      <c r="I36" s="9">
         <v>100</v>
       </c>
       <c r="J36" s="3">
@@ -1924,8 +1948,8 @@
       <c r="M36" s="3">
         <v>45</v>
       </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="6">
+      <c r="O36" s="8"/>
+      <c r="P36" s="9">
         <v>100</v>
       </c>
       <c r="Q36" s="3">
@@ -1940,8 +1964,8 @@
       <c r="T36" s="3">
         <v>28679.5</v>
       </c>
-      <c r="V36" s="7"/>
-      <c r="W36" s="6">
+      <c r="V36" s="8"/>
+      <c r="W36" s="9">
         <v>100</v>
       </c>
       <c r="X36" s="3">
@@ -1958,8 +1982,8 @@
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="4">
         <v>27</v>
       </c>
@@ -1972,8 +1996,8 @@
       <c r="F37" s="4">
         <v>29</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="5"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="4">
         <v>27</v>
       </c>
@@ -1986,8 +2010,8 @@
       <c r="M37" s="4">
         <v>41</v>
       </c>
-      <c r="O37" s="7"/>
-      <c r="P37" s="5"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="10"/>
       <c r="Q37" s="4">
         <v>27205</v>
       </c>
@@ -2000,8 +2024,8 @@
       <c r="T37" s="4">
         <v>27039.4</v>
       </c>
-      <c r="V37" s="7"/>
-      <c r="W37" s="5"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="10"/>
       <c r="X37" s="4">
         <v>27205</v>
       </c>
@@ -2016,99 +2040,99 @@
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="O41" s="11" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="O41" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
-      <c r="AA41" s="11"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="O43" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
+      <c r="A43" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="O43" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
@@ -2138,33 +2162,33 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="8" t="s">
+      <c r="Q45" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
       <c r="W45" s="1"/>
-      <c r="X45" s="8" t="s">
+      <c r="X45" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C46" s="2">
@@ -2217,10 +2241,10 @@
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="9">
         <v>0</v>
       </c>
       <c r="C47" s="3">
@@ -2235,10 +2259,10 @@
       <c r="F47" s="3">
         <v>17</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="9">
         <v>0</v>
       </c>
       <c r="J47" s="3">
@@ -2253,10 +2277,10 @@
       <c r="M47" s="3">
         <v>17</v>
       </c>
-      <c r="O47" s="7" t="s">
+      <c r="O47" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="6">
+      <c r="P47" s="9">
         <v>0</v>
       </c>
       <c r="Q47" s="3">
@@ -2271,10 +2295,10 @@
       <c r="T47" s="3">
         <v>59351.9</v>
       </c>
-      <c r="V47" s="7" t="s">
+      <c r="V47" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="W47" s="6">
+      <c r="W47" s="9">
         <v>0</v>
       </c>
       <c r="X47" s="3">
@@ -2291,8 +2315,8 @@
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="2">
         <v>12</v>
       </c>
@@ -2305,8 +2329,8 @@
       <c r="F48" s="2">
         <v>14</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="5"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="10"/>
       <c r="J48" s="2">
         <v>12</v>
       </c>
@@ -2319,8 +2343,8 @@
       <c r="M48" s="2">
         <v>14</v>
       </c>
-      <c r="O48" s="7"/>
-      <c r="P48" s="5"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="10"/>
       <c r="Q48" s="2">
         <v>58151.9</v>
       </c>
@@ -2333,8 +2357,8 @@
       <c r="T48" s="2">
         <v>58436.6</v>
       </c>
-      <c r="V48" s="7"/>
-      <c r="W48" s="5"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="10"/>
       <c r="X48" s="2">
         <v>58151.9</v>
       </c>
@@ -2349,8 +2373,8 @@
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="6">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9">
         <v>50</v>
       </c>
       <c r="C49" s="3">
@@ -2365,8 +2389,8 @@
       <c r="F49" s="3">
         <v>33</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="6">
+      <c r="H49" s="8"/>
+      <c r="I49" s="9">
         <v>50</v>
       </c>
       <c r="J49" s="3">
@@ -2381,8 +2405,8 @@
       <c r="M49" s="3">
         <v>59</v>
       </c>
-      <c r="O49" s="7"/>
-      <c r="P49" s="6">
+      <c r="O49" s="8"/>
+      <c r="P49" s="9">
         <v>50</v>
       </c>
       <c r="Q49" s="3">
@@ -2397,8 +2421,8 @@
       <c r="T49" s="3">
         <v>49702.3</v>
       </c>
-      <c r="V49" s="7"/>
-      <c r="W49" s="6">
+      <c r="V49" s="8"/>
+      <c r="W49" s="9">
         <v>50</v>
       </c>
       <c r="X49" s="3">
@@ -2415,8 +2439,8 @@
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="5"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="2">
         <v>15</v>
       </c>
@@ -2429,8 +2453,8 @@
       <c r="F50" s="2">
         <v>28</v>
       </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="5"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="10"/>
       <c r="J50" s="2">
         <v>15</v>
       </c>
@@ -2443,8 +2467,8 @@
       <c r="M50" s="2">
         <v>51</v>
       </c>
-      <c r="O50" s="7"/>
-      <c r="P50" s="5"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="10"/>
       <c r="Q50" s="2">
         <v>47818.8</v>
       </c>
@@ -2457,8 +2481,8 @@
       <c r="T50" s="2">
         <v>50424.800000000003</v>
       </c>
-      <c r="V50" s="7"/>
-      <c r="W50" s="5"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="10"/>
       <c r="X50" s="2">
         <v>47818.8</v>
       </c>
@@ -2473,8 +2497,8 @@
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="6">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9">
         <v>100</v>
       </c>
       <c r="C51" s="3">
@@ -2489,8 +2513,8 @@
       <c r="F51" s="3">
         <v>47</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="6">
+      <c r="H51" s="8"/>
+      <c r="I51" s="9">
         <v>100</v>
       </c>
       <c r="J51" s="3">
@@ -2505,8 +2529,8 @@
       <c r="M51" s="3">
         <v>72</v>
       </c>
-      <c r="O51" s="7"/>
-      <c r="P51" s="6">
+      <c r="O51" s="8"/>
+      <c r="P51" s="9">
         <v>100</v>
       </c>
       <c r="Q51" s="3">
@@ -2521,8 +2545,8 @@
       <c r="T51" s="3">
         <v>40946.800000000003</v>
       </c>
-      <c r="V51" s="7"/>
-      <c r="W51" s="6">
+      <c r="V51" s="8"/>
+      <c r="W51" s="9">
         <v>100</v>
       </c>
       <c r="X51" s="3">
@@ -2539,8 +2563,8 @@
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="4">
         <v>19</v>
       </c>
@@ -2553,8 +2577,8 @@
       <c r="F52" s="4">
         <v>35</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="5"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="10"/>
       <c r="J52" s="4">
         <v>19</v>
       </c>
@@ -2567,8 +2591,8 @@
       <c r="M52" s="4">
         <v>62</v>
       </c>
-      <c r="O52" s="7"/>
-      <c r="P52" s="5"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="10"/>
       <c r="Q52" s="4">
         <v>39007.5</v>
       </c>
@@ -2581,8 +2605,8 @@
       <c r="T52" s="4">
         <v>44846.7</v>
       </c>
-      <c r="V52" s="7"/>
-      <c r="W52" s="5"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="10"/>
       <c r="X52" s="4">
         <v>39007.5</v>
       </c>
@@ -2597,36 +2621,36 @@
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="O54" s="9" t="s">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="O54" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
@@ -2656,33 +2680,33 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="8" t="s">
+      <c r="J56" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
       <c r="P56" s="1"/>
-      <c r="Q56" s="8" t="s">
+      <c r="Q56" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
       <c r="W56" s="1"/>
-      <c r="X56" s="8" t="s">
+      <c r="X56" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C57" s="2">
@@ -2735,40 +2759,40 @@
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="9">
         <v>0</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="9">
         <v>0</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
-      <c r="O58" s="7" t="s">
+      <c r="O58" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="6">
+      <c r="P58" s="9">
         <v>0</v>
       </c>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
-      <c r="V58" s="7" t="s">
+      <c r="V58" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="6">
+      <c r="W58" s="9">
         <v>0</v>
       </c>
       <c r="X58" s="3"/>
@@ -2777,58 +2801,58 @@
       <c r="AA58" s="3"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
-      <c r="B59" s="5"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="5"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="10"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="5"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="10"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="5"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="10"/>
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="6">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9">
         <v>50</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="6">
+      <c r="H60" s="8"/>
+      <c r="I60" s="9">
         <v>50</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="6">
+      <c r="O60" s="8"/>
+      <c r="P60" s="9">
         <v>50</v>
       </c>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="6">
+      <c r="V60" s="8"/>
+      <c r="W60" s="9">
         <v>50</v>
       </c>
       <c r="X60" s="3"/>
@@ -2837,58 +2861,58 @@
       <c r="AA60" s="3"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="5"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="5"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="10"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="5"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="10"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="5"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="10"/>
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
-      <c r="B62" s="6">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9">
         <v>100</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="6">
+      <c r="H62" s="8"/>
+      <c r="I62" s="9">
         <v>100</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="6">
+      <c r="O62" s="8"/>
+      <c r="P62" s="9">
         <v>100</v>
       </c>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="6">
+      <c r="V62" s="8"/>
+      <c r="W62" s="9">
         <v>100</v>
       </c>
       <c r="X62" s="3"/>
@@ -2897,62 +2921,62 @@
       <c r="AA62" s="3"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="5"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="5"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="10"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="5"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="10"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="5"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="10"/>
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="O65" s="9" t="s">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="O65" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
-      <c r="AA65" s="9"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="11"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
@@ -2982,33 +3006,33 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B67" s="1"/>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="8" t="s">
+      <c r="J67" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
       <c r="P67" s="1"/>
-      <c r="Q67" s="8" t="s">
+      <c r="Q67" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
       <c r="W67" s="1"/>
-      <c r="X67" s="8" t="s">
+      <c r="X67" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Y67" s="8"/>
-      <c r="Z67" s="8"/>
-      <c r="AA67" s="8"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="12"/>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C68" s="2">
@@ -3061,10 +3085,10 @@
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="9">
         <v>0</v>
       </c>
       <c r="C69" s="3">
@@ -3079,10 +3103,10 @@
       <c r="F69" s="3">
         <v>18</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I69" s="9">
         <v>0</v>
       </c>
       <c r="J69" s="3">
@@ -3097,10 +3121,10 @@
       <c r="M69" s="3">
         <v>18</v>
       </c>
-      <c r="O69" s="7" t="s">
+      <c r="O69" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P69" s="6">
+      <c r="P69" s="9">
         <v>0</v>
       </c>
       <c r="Q69" s="3">
@@ -3115,10 +3139,10 @@
       <c r="T69" s="3">
         <v>68809.399999999994</v>
       </c>
-      <c r="V69" s="7" t="s">
+      <c r="V69" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="W69" s="6">
+      <c r="W69" s="9">
         <v>0</v>
       </c>
       <c r="X69" s="3">
@@ -3135,8 +3159,8 @@
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="5"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="2">
         <v>12</v>
       </c>
@@ -3149,8 +3173,8 @@
       <c r="F70" s="2">
         <v>15</v>
       </c>
-      <c r="H70" s="7"/>
-      <c r="I70" s="5"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="10"/>
       <c r="J70" s="2">
         <v>12</v>
       </c>
@@ -3163,8 +3187,8 @@
       <c r="M70" s="2">
         <v>15</v>
       </c>
-      <c r="O70" s="7"/>
-      <c r="P70" s="5"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="10"/>
       <c r="Q70" s="2">
         <v>65604.7</v>
       </c>
@@ -3177,8 +3201,8 @@
       <c r="T70" s="2">
         <v>66780.600000000006</v>
       </c>
-      <c r="V70" s="7"/>
-      <c r="W70" s="5"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="10"/>
       <c r="X70" s="2">
         <v>65604.7</v>
       </c>
@@ -3193,8 +3217,8 @@
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
-      <c r="B71" s="6">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9">
         <v>50</v>
       </c>
       <c r="C71" s="3">
@@ -3209,8 +3233,8 @@
       <c r="F71" s="3">
         <v>28</v>
       </c>
-      <c r="H71" s="7"/>
-      <c r="I71" s="6">
+      <c r="H71" s="8"/>
+      <c r="I71" s="9">
         <v>50</v>
       </c>
       <c r="J71" s="3">
@@ -3225,8 +3249,8 @@
       <c r="M71" s="3">
         <v>47</v>
       </c>
-      <c r="O71" s="7"/>
-      <c r="P71" s="6">
+      <c r="O71" s="8"/>
+      <c r="P71" s="9">
         <v>50</v>
       </c>
       <c r="Q71" s="3">
@@ -3241,8 +3265,8 @@
       <c r="T71" s="3">
         <v>68808.3</v>
       </c>
-      <c r="V71" s="7"/>
-      <c r="W71" s="6">
+      <c r="V71" s="8"/>
+      <c r="W71" s="9">
         <v>50</v>
       </c>
       <c r="X71" s="3">
@@ -3259,8 +3283,8 @@
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
-      <c r="B72" s="5"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="2">
         <v>19</v>
       </c>
@@ -3273,8 +3297,8 @@
       <c r="F72" s="2">
         <v>24</v>
       </c>
-      <c r="H72" s="7"/>
-      <c r="I72" s="5"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="10"/>
       <c r="J72" s="2">
         <v>21</v>
       </c>
@@ -3287,8 +3311,8 @@
       <c r="M72" s="2">
         <v>43</v>
       </c>
-      <c r="O72" s="7"/>
-      <c r="P72" s="5"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="10"/>
       <c r="Q72" s="2">
         <v>56009</v>
       </c>
@@ -3301,8 +3325,8 @@
       <c r="T72" s="2">
         <v>63186.8</v>
       </c>
-      <c r="V72" s="7"/>
-      <c r="W72" s="5"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="10"/>
       <c r="X72" s="2">
         <v>54377.3</v>
       </c>
@@ -3317,8 +3341,8 @@
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
-      <c r="B73" s="6">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9">
         <v>100</v>
       </c>
       <c r="C73" s="3">
@@ -3333,8 +3357,8 @@
       <c r="F73" s="3">
         <v>51</v>
       </c>
-      <c r="H73" s="7"/>
-      <c r="I73" s="6">
+      <c r="H73" s="8"/>
+      <c r="I73" s="9">
         <v>100</v>
       </c>
       <c r="J73" s="3">
@@ -3349,8 +3373,8 @@
       <c r="M73" s="3">
         <v>71</v>
       </c>
-      <c r="O73" s="7"/>
-      <c r="P73" s="6">
+      <c r="O73" s="8"/>
+      <c r="P73" s="9">
         <v>100</v>
       </c>
       <c r="Q73" s="3">
@@ -3365,8 +3389,8 @@
       <c r="T73" s="3">
         <v>50847</v>
       </c>
-      <c r="V73" s="7"/>
-      <c r="W73" s="6">
+      <c r="V73" s="8"/>
+      <c r="W73" s="9">
         <v>100</v>
       </c>
       <c r="X73" s="3">
@@ -3383,8 +3407,8 @@
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
-      <c r="B74" s="5"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="4">
         <v>25</v>
       </c>
@@ -3397,8 +3421,8 @@
       <c r="F74" s="4">
         <v>49</v>
       </c>
-      <c r="H74" s="7"/>
-      <c r="I74" s="5"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="10"/>
       <c r="J74" s="4">
         <v>37</v>
       </c>
@@ -3411,8 +3435,8 @@
       <c r="M74" s="4">
         <v>68</v>
       </c>
-      <c r="O74" s="7"/>
-      <c r="P74" s="5"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="10"/>
       <c r="Q74" s="4">
         <v>48736.800000000003</v>
       </c>
@@ -3425,8 +3449,8 @@
       <c r="T74" s="4">
         <v>48238.1</v>
       </c>
-      <c r="V74" s="7"/>
-      <c r="W74" s="5"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="10"/>
       <c r="X74" s="4">
         <v>41202.800000000003</v>
       </c>
@@ -3442,70 +3466,56 @@
     </row>
   </sheetData>
   <mergeCells count="138">
-    <mergeCell ref="V69:V74"/>
-    <mergeCell ref="W69:W70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="W71:W72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="H69:H74"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="O69:O74"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="A65:M65"/>
-    <mergeCell ref="O65:AA65"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="Q67:T67"/>
-    <mergeCell ref="X67:AA67"/>
-    <mergeCell ref="V58:V63"/>
-    <mergeCell ref="W58:W59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="W60:W61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="W62:W63"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="H58:H63"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="O58:O63"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="A54:M54"/>
-    <mergeCell ref="O54:AA54"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="X56:AA56"/>
-    <mergeCell ref="V47:V52"/>
-    <mergeCell ref="W47:W48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="W51:W52"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="Q45:T45"/>
-    <mergeCell ref="X45:AA45"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="H47:H52"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="O47:O52"/>
-    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="H32:H37"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="O10:O15"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="V10:V15"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="O21:O26"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="V21:V26"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="W25:W26"/>
     <mergeCell ref="A2:AA2"/>
     <mergeCell ref="A39:AA39"/>
     <mergeCell ref="A41:M41"/>
@@ -3530,56 +3540,70 @@
     <mergeCell ref="W34:W35"/>
     <mergeCell ref="P36:P37"/>
     <mergeCell ref="W36:W37"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="O21:O26"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="V21:V26"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="O10:O15"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="V10:V15"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="H32:H37"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="H21:H26"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="X45:AA45"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="H47:H52"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="O47:O52"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="V47:V52"/>
+    <mergeCell ref="W47:W48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="W51:W52"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="H58:H63"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="O58:O63"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="O54:AA54"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="X56:AA56"/>
+    <mergeCell ref="V58:V63"/>
+    <mergeCell ref="W58:W59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="W60:W61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="W62:W63"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="H69:H74"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="O69:O74"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="A65:M65"/>
+    <mergeCell ref="O65:AA65"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="Q67:T67"/>
+    <mergeCell ref="X67:AA67"/>
+    <mergeCell ref="V69:V74"/>
+    <mergeCell ref="W69:W70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="W71:W72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="W73:W74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3587,108 +3611,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD5D33A-25C5-0240-BFA9-6B02F4408F6E}">
-  <dimension ref="A2:AA62"/>
+  <dimension ref="A2:AA64"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="R64" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:AA64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="O4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
+      <c r="A4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="O4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="O6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="O6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
@@ -3718,33 +3742,33 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="8" t="s">
+      <c r="X8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
@@ -3797,10 +3821,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="6">
         <v>0</v>
       </c>
       <c r="C10" s="3">
@@ -3819,10 +3843,10 @@
         <f>AVERAGE(data!F10:F11) - AVERAGE(data!$C$10:$C$11)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="6">
         <v>0</v>
       </c>
       <c r="J10" s="3">
@@ -3841,10 +3865,10 @@
         <f>AVERAGE(data!M10:M11) - AVERAGE(data!$C$10:$C$11)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="6">
         <v>0</v>
       </c>
       <c r="Q10" s="3">
@@ -3863,10 +3887,10 @@
         <f xml:space="preserve"> ROUND(AVERAGE(data!T10:T11) *100/AVERAGE(data!$Q$10:$Q$11) - 100,2)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="14">
+      <c r="W10" s="6">
         <v>0</v>
       </c>
       <c r="X10" s="3">
@@ -3887,8 +3911,8 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="14">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6">
         <v>50</v>
       </c>
       <c r="C11" s="3">
@@ -3907,8 +3931,8 @@
         <f>AVERAGE(data!F12:F13) - AVERAGE(data!$C$10:$C$11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="14">
+      <c r="H11" s="8"/>
+      <c r="I11" s="6">
         <v>50</v>
       </c>
       <c r="J11" s="3">
@@ -3927,8 +3951,8 @@
         <f>AVERAGE(data!M12:M13) - AVERAGE(data!$C$10:$C$11)</f>
         <v>14</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="14">
+      <c r="O11" s="8"/>
+      <c r="P11" s="6">
         <v>50</v>
       </c>
       <c r="Q11" s="3">
@@ -3947,8 +3971,8 @@
         <f xml:space="preserve"> ROUND(AVERAGE(data!T12:T13) *100/AVERAGE(data!$Q$10:$Q$11) - 100,2)</f>
         <v>-0.18</v>
       </c>
-      <c r="V11" s="7"/>
-      <c r="W11" s="14">
+      <c r="V11" s="8"/>
+      <c r="W11" s="6">
         <v>50</v>
       </c>
       <c r="X11" s="3">
@@ -3969,118 +3993,118 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7">
         <v>100</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="5">
         <f>AVERAGE(data!C14:C15) - AVERAGE(data!$C$10:$C$11)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="5">
         <f>AVERAGE(data!D14:D15) - AVERAGE(data!$C$10:$C$11)</f>
         <v>1</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="5">
         <f>AVERAGE(data!E14:E15) - AVERAGE(data!$C$10:$C$11)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="5">
         <f>AVERAGE(data!F14:F15) - AVERAGE(data!$C$10:$C$11)</f>
         <v>3</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="15">
+      <c r="H12" s="8"/>
+      <c r="I12" s="7">
         <v>100</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="5">
         <f>AVERAGE(data!J14:J15) - AVERAGE(data!$C$10:$C$11)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="5">
         <f>AVERAGE(data!K14:K15) - AVERAGE(data!$C$10:$C$11)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="5">
         <f>AVERAGE(data!L14:L15) - AVERAGE(data!$C$10:$C$11)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="5">
         <f>AVERAGE(data!M14:M15) - AVERAGE(data!$C$10:$C$11)</f>
         <v>14</v>
       </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="15">
+      <c r="O12" s="8"/>
+      <c r="P12" s="7">
         <v>100</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!Q14:Q15) *100/AVERAGE(data!$Q$10:$Q$11) - 100,2)</f>
         <v>-3.3</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!R14:R15) *100/AVERAGE(data!$Q$10:$Q$11) - 100,2)</f>
         <v>-3.3</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!S14:S15) *100/AVERAGE(data!$Q$10:$Q$11) - 100,2)</f>
         <v>-3.3</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!T14:T15) *100/AVERAGE(data!$Q$10:$Q$11) - 100,2)</f>
         <v>-3.86</v>
       </c>
-      <c r="V12" s="7"/>
-      <c r="W12" s="15">
+      <c r="V12" s="8"/>
+      <c r="W12" s="7">
         <v>100</v>
       </c>
-      <c r="X12" s="13">
+      <c r="X12" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!X14:X15) *100/AVERAGE(data!$Q$10:$Q$11) - 100,2)</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="Y12" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!Y14:Y15) *100/AVERAGE(data!$Q$10:$Q$11) - 100,2)</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="Z12" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!Z14:Z15) *100/AVERAGE(data!$Q$10:$Q$11) - 100,2)</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AA12" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!AA14:AA15) *100/AVERAGE(data!$Q$10:$Q$11) - 100,2)</f>
         <v>-2.6</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="O14" s="9" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="O14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
@@ -4110,33 +4134,33 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="8" t="s">
+      <c r="Q16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="8" t="s">
+      <c r="X16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C17" s="2">
@@ -4189,40 +4213,40 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="9">
         <v>0</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="9">
         <v>0</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="9">
         <v>0</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="V18" s="7" t="s">
+      <c r="V18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="W18" s="6">
+      <c r="W18" s="9">
         <v>0</v>
       </c>
       <c r="X18" s="3"/>
@@ -4231,58 +4255,58 @@
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="5"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="5"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="10"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="5"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="10"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9">
         <v>50</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6">
+      <c r="H20" s="8"/>
+      <c r="I20" s="9">
         <v>50</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="6">
+      <c r="O20" s="8"/>
+      <c r="P20" s="9">
         <v>50</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="6">
+      <c r="V20" s="8"/>
+      <c r="W20" s="9">
         <v>50</v>
       </c>
       <c r="X20" s="3"/>
@@ -4291,58 +4315,58 @@
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="5"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="5"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="10"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="5"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="10"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9">
         <v>100</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="6">
+      <c r="H22" s="8"/>
+      <c r="I22" s="9">
         <v>100</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="6">
+      <c r="O22" s="8"/>
+      <c r="P22" s="9">
         <v>100</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="6">
+      <c r="V22" s="8"/>
+      <c r="W22" s="9">
         <v>100</v>
       </c>
       <c r="X22" s="3"/>
@@ -4351,62 +4375,62 @@
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="5"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="5"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="10"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="5"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="10"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="O25" s="9" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="O25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -4436,33 +4460,33 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="8" t="s">
+      <c r="Q27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="8" t="s">
+      <c r="X27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C28" s="2">
@@ -4515,10 +4539,10 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="6">
         <v>0</v>
       </c>
       <c r="C29" s="3">
@@ -4537,10 +4561,10 @@
         <f>AVERAGE(data!F32:F33) - AVERAGE(data!$C$32:$C$33)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="6">
         <v>0</v>
       </c>
       <c r="J29" s="3">
@@ -4559,10 +4583,10 @@
         <f>AVERAGE(data!M32:M33) - AVERAGE(data!$C$32:$C$33)</f>
         <v>0</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="O29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29" s="6">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
@@ -4581,10 +4605,10 @@
         <f xml:space="preserve"> ROUND(AVERAGE(data!T32:T33) *100/AVERAGE(data!$Q$32:$Q$33) - 100,2)</f>
         <v>0</v>
       </c>
-      <c r="V29" s="7" t="s">
+      <c r="V29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="W29" s="14">
+      <c r="W29" s="6">
         <v>0</v>
       </c>
       <c r="X29" s="3">
@@ -4605,8 +4629,8 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="14">
+      <c r="A30" s="8"/>
+      <c r="B30" s="6">
         <v>50</v>
       </c>
       <c r="C30" s="3">
@@ -4625,8 +4649,8 @@
         <f>AVERAGE(data!F34:F35) - AVERAGE(data!$C$32:$C$33)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="14">
+      <c r="H30" s="8"/>
+      <c r="I30" s="6">
         <v>50</v>
       </c>
       <c r="J30" s="3">
@@ -4645,8 +4669,8 @@
         <f>AVERAGE(data!M34:M35) - AVERAGE(data!$C$32:$C$33)</f>
         <v>14</v>
       </c>
-      <c r="O30" s="7"/>
-      <c r="P30" s="14">
+      <c r="O30" s="8"/>
+      <c r="P30" s="6">
         <v>50</v>
       </c>
       <c r="Q30" s="3">
@@ -4665,8 +4689,8 @@
         <f xml:space="preserve"> ROUND(AVERAGE(data!T34:T35) *100/AVERAGE(data!$Q$32:$Q$33) - 100,2)</f>
         <v>0</v>
       </c>
-      <c r="V30" s="7"/>
-      <c r="W30" s="14">
+      <c r="V30" s="8"/>
+      <c r="W30" s="6">
         <v>50</v>
       </c>
       <c r="X30" s="3">
@@ -4687,181 +4711,181 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="15">
+      <c r="A31" s="8"/>
+      <c r="B31" s="7">
         <v>100</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="5">
         <f>AVERAGE(data!C36:C37) - AVERAGE(data!$C$32:$C$33)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="5">
         <f>AVERAGE(data!D36:D37) - AVERAGE(data!$C$32:$C$33)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="5">
         <f>AVERAGE(data!E36:E37) - AVERAGE(data!$C$32:$C$33)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="5">
         <f>AVERAGE(data!F36:F37) - AVERAGE(data!$C$32:$C$33)</f>
         <v>2</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="15">
+      <c r="H31" s="8"/>
+      <c r="I31" s="7">
         <v>100</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="5">
         <f>AVERAGE(data!J36:J37) - AVERAGE(data!$C$32:$C$33)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="5">
         <f>AVERAGE(data!K36:K37) - AVERAGE(data!$C$32:$C$33)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="5">
         <f>AVERAGE(data!L36:L37) - AVERAGE(data!$C$32:$C$33)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="5">
         <f>AVERAGE(data!M36:M37) - AVERAGE(data!$C$32:$C$33)</f>
         <v>14</v>
       </c>
-      <c r="O31" s="7"/>
-      <c r="P31" s="15">
+      <c r="O31" s="8"/>
+      <c r="P31" s="7">
         <v>100</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!Q36:Q37) *100/AVERAGE(data!$Q$32:$Q$33) - 100,2)</f>
         <v>0</v>
       </c>
-      <c r="R31" s="13">
+      <c r="R31" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!R36:R37) *100/AVERAGE(data!$Q$32:$Q$33) - 100,2)</f>
         <v>0</v>
       </c>
-      <c r="S31" s="13">
+      <c r="S31" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!S36:S37) *100/AVERAGE(data!$Q$32:$Q$33) - 100,2)</f>
         <v>0</v>
       </c>
-      <c r="T31" s="13">
+      <c r="T31" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!T36:T37) *100/AVERAGE(data!$Q$32:$Q$33) - 100,2)</f>
         <v>-0.42</v>
       </c>
-      <c r="V31" s="7"/>
-      <c r="W31" s="15">
+      <c r="V31" s="8"/>
+      <c r="W31" s="7">
         <v>100</v>
       </c>
-      <c r="X31" s="13">
+      <c r="X31" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!X36:X37) *100/AVERAGE(data!$X$32:$X$33) - 100,2)</f>
         <v>0</v>
       </c>
-      <c r="Y31" s="13">
+      <c r="Y31" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!Y36:Y37) *100/AVERAGE(data!$X$32:$X$33) - 100,2)</f>
         <v>0</v>
       </c>
-      <c r="Z31" s="13">
+      <c r="Z31" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!Z36:Z37) *100/AVERAGE(data!$X$32:$X$33) - 100,2)</f>
         <v>0</v>
       </c>
-      <c r="AA31" s="13">
+      <c r="AA31" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!AA36:AA37) *100/AVERAGE(data!$X$32:$X$33) - 100,2)</f>
         <v>-2.6</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="O35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
+      <c r="A35" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="O35" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="O37" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
+      <c r="A37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="O37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
@@ -4891,33 +4915,33 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
       <c r="P39" s="1"/>
-      <c r="Q39" s="8" t="s">
+      <c r="Q39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="8" t="s">
+      <c r="X39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C40" s="2">
@@ -4970,10 +4994,10 @@
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="6">
         <v>0</v>
       </c>
       <c r="C41" s="3">
@@ -4992,10 +5016,10 @@
         <f>AVERAGE(data!F47:F48) - AVERAGE(data!$C$47:$C$48)</f>
         <v>2</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="6">
         <v>0</v>
       </c>
       <c r="J41" s="3">
@@ -5014,10 +5038,10 @@
         <f>AVERAGE(data!M47:M48) - AVERAGE(data!$C$47:$C$48)</f>
         <v>2</v>
       </c>
-      <c r="O41" s="7" t="s">
+      <c r="O41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="14">
+      <c r="P41" s="6">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
@@ -5036,10 +5060,10 @@
         <f xml:space="preserve"> ROUND(AVERAGE(data!T47:T48) *100/AVERAGE(data!$Q$47:$Q$48) - 100,2)</f>
         <v>0.66</v>
       </c>
-      <c r="V41" s="7" t="s">
+      <c r="V41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="W41" s="14">
+      <c r="W41" s="6">
         <v>0</v>
       </c>
       <c r="X41" s="3">
@@ -5060,8 +5084,8 @@
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="14">
+      <c r="A42" s="8"/>
+      <c r="B42" s="6">
         <v>50</v>
       </c>
       <c r="C42" s="3">
@@ -5080,8 +5104,8 @@
         <f>AVERAGE(data!F49:F50) - AVERAGE(data!$C$47:$C$48)</f>
         <v>17</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="14">
+      <c r="H42" s="8"/>
+      <c r="I42" s="6">
         <v>50</v>
       </c>
       <c r="J42" s="3">
@@ -5100,8 +5124,8 @@
         <f>AVERAGE(data!M49:M50) - AVERAGE(data!$C$47:$C$48)</f>
         <v>41.5</v>
       </c>
-      <c r="O42" s="7"/>
-      <c r="P42" s="14">
+      <c r="O42" s="8"/>
+      <c r="P42" s="6">
         <v>50</v>
       </c>
       <c r="Q42" s="3">
@@ -5120,8 +5144,8 @@
         <f xml:space="preserve"> ROUND(AVERAGE(data!T49:T50) *100/AVERAGE(data!$Q$47:$Q$48) - 100,2)</f>
         <v>-14.44</v>
       </c>
-      <c r="V42" s="7"/>
-      <c r="W42" s="14">
+      <c r="V42" s="8"/>
+      <c r="W42" s="6">
         <v>50</v>
       </c>
       <c r="X42" s="3">
@@ -5142,118 +5166,118 @@
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="15">
+      <c r="A43" s="8"/>
+      <c r="B43" s="7">
         <v>100</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="5">
         <f>AVERAGE(data!C51:C52) - AVERAGE(data!$C$47:$C$48)</f>
         <v>7.5</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="5">
         <f>AVERAGE(data!D51:D52) - AVERAGE(data!$C$47:$C$48)</f>
         <v>16.5</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="5">
         <f>AVERAGE(data!E51:E52) - AVERAGE(data!$C$47:$C$48)</f>
         <v>21.5</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="5">
         <f>AVERAGE(data!F51:F52) - AVERAGE(data!$C$47:$C$48)</f>
         <v>27.5</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="15">
+      <c r="H43" s="8"/>
+      <c r="I43" s="7">
         <v>100</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="5">
         <f>AVERAGE(data!J51:J52) - AVERAGE(data!$C$47:$C$48)</f>
         <v>7.5</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="5">
         <f>AVERAGE(data!K51:K52) - AVERAGE(data!$C$47:$C$48)</f>
         <v>45.5</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L43" s="5">
         <f>AVERAGE(data!L51:L52) - AVERAGE(data!$C$47:$C$48)</f>
         <v>52</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M43" s="5">
         <f>AVERAGE(data!M51:M52) - AVERAGE(data!$C$47:$C$48)</f>
         <v>53.5</v>
       </c>
-      <c r="O43" s="7"/>
-      <c r="P43" s="15">
+      <c r="O43" s="8"/>
+      <c r="P43" s="7">
         <v>100</v>
       </c>
-      <c r="Q43" s="13">
+      <c r="Q43" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!Q51:Q52) *100/AVERAGE(data!$Q$47:$Q$48) - 100,2)</f>
         <v>-33.29</v>
       </c>
-      <c r="R43" s="13">
+      <c r="R43" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!R51:R52) *100/AVERAGE(data!$Q$47:$Q$48) - 100,2)</f>
         <v>-32.46</v>
       </c>
-      <c r="S43" s="13">
+      <c r="S43" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!S51:S52) *100/AVERAGE(data!$Q$47:$Q$48) - 100,2)</f>
         <v>-30.44</v>
       </c>
-      <c r="T43" s="13">
+      <c r="T43" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!T51:T52) *100/AVERAGE(data!$Q$47:$Q$48) - 100,2)</f>
         <v>-26.68</v>
       </c>
-      <c r="V43" s="7"/>
-      <c r="W43" s="15">
+      <c r="V43" s="8"/>
+      <c r="W43" s="7">
         <v>100</v>
       </c>
-      <c r="X43" s="13">
+      <c r="X43" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!X51:X52) *100/AVERAGE(data!$Q$47:$Q$48) - 100,2)</f>
         <v>-33.29</v>
       </c>
-      <c r="Y43" s="13">
+      <c r="Y43" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!Y51:Y52) *100/AVERAGE(data!$Q$47:$Q$48) - 100,2)</f>
         <v>-33.17</v>
       </c>
-      <c r="Z43" s="13">
+      <c r="Z43" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!Z51:Z52) *100/AVERAGE(data!$Q$47:$Q$48) - 100,2)</f>
         <v>-30.58</v>
       </c>
-      <c r="AA43" s="13">
+      <c r="AA43" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!AA51:AA52) *100/AVERAGE(data!$Q$47:$Q$48) - 100,2)</f>
         <v>-26.72</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="O45" s="9" t="s">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="O45" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
@@ -5283,33 +5307,33 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="8" t="s">
+      <c r="Q47" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
       <c r="W47" s="1"/>
-      <c r="X47" s="8" t="s">
+      <c r="X47" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="8"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C48" s="2">
@@ -5362,40 +5386,40 @@
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="9">
         <v>0</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="9">
         <v>0</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
-      <c r="O49" s="7" t="s">
+      <c r="O49" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="6">
+      <c r="P49" s="9">
         <v>0</v>
       </c>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
-      <c r="V49" s="7" t="s">
+      <c r="V49" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="W49" s="6">
+      <c r="W49" s="9">
         <v>0</v>
       </c>
       <c r="X49" s="3"/>
@@ -5404,58 +5428,58 @@
       <c r="AA49" s="3"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="5"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="5"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="10"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="5"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="10"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="5"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="10"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="6">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9">
         <v>50</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="6">
+      <c r="H51" s="8"/>
+      <c r="I51" s="9">
         <v>50</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="6">
+      <c r="O51" s="8"/>
+      <c r="P51" s="9">
         <v>50</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="6">
+      <c r="V51" s="8"/>
+      <c r="W51" s="9">
         <v>50</v>
       </c>
       <c r="X51" s="3"/>
@@ -5464,58 +5488,58 @@
       <c r="AA51" s="3"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="5"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="10"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="5"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="10"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="5"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="10"/>
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
-      <c r="B53" s="6">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9">
         <v>100</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="6">
+      <c r="H53" s="8"/>
+      <c r="I53" s="9">
         <v>100</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="6">
+      <c r="O53" s="8"/>
+      <c r="P53" s="9">
         <v>100</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="6">
+      <c r="V53" s="8"/>
+      <c r="W53" s="9">
         <v>100</v>
       </c>
       <c r="X53" s="3"/>
@@ -5524,62 +5548,62 @@
       <c r="AA53" s="3"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="5"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="5"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="10"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="5"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="10"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="5"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="10"/>
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="O56" s="9" t="s">
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="O56" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
@@ -5609,33 +5633,33 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="8" t="s">
+      <c r="J58" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="8" t="s">
+      <c r="Q58" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
       <c r="W58" s="1"/>
-      <c r="X58" s="8" t="s">
+      <c r="X58" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Y58" s="8"/>
-      <c r="Z58" s="8"/>
-      <c r="AA58" s="8"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C59" s="2">
@@ -5688,10 +5712,10 @@
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="6">
         <v>0</v>
       </c>
       <c r="C60" s="3">
@@ -5710,10 +5734,10 @@
         <f>AVERAGE(data!F69:F70) - AVERAGE(data!$C$69:$C$70)</f>
         <v>3.5</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60" s="6">
         <v>0</v>
       </c>
       <c r="J60" s="3">
@@ -5732,10 +5756,10 @@
         <f>AVERAGE(data!M69:M70) - AVERAGE(data!$C$69:$C$70)</f>
         <v>3.5</v>
       </c>
-      <c r="O60" s="7" t="s">
+      <c r="O60" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P60" s="14">
+      <c r="P60" s="6">
         <v>0</v>
       </c>
       <c r="Q60" s="3">
@@ -5754,10 +5778,10 @@
         <f xml:space="preserve"> ROUND(AVERAGE(data!T69:T70) *100/AVERAGE(data!$Q$69:$Q$70) - 100,2)</f>
         <v>2.06</v>
       </c>
-      <c r="V60" s="7" t="s">
+      <c r="V60" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="W60" s="14">
+      <c r="W60" s="6">
         <v>0</v>
       </c>
       <c r="X60" s="3">
@@ -5778,8 +5802,8 @@
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="14">
+      <c r="A61" s="8"/>
+      <c r="B61" s="6">
         <v>50</v>
       </c>
       <c r="C61" s="3">
@@ -5798,8 +5822,8 @@
         <f>AVERAGE(data!F71:F72) - AVERAGE(data!$C$69:$C$70)</f>
         <v>13</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="14">
+      <c r="H61" s="8"/>
+      <c r="I61" s="6">
         <v>50</v>
       </c>
       <c r="J61" s="3">
@@ -5818,8 +5842,8 @@
         <f>AVERAGE(data!M71:M72) - AVERAGE(data!$C$69:$C$70)</f>
         <v>32</v>
       </c>
-      <c r="O61" s="7"/>
-      <c r="P61" s="14">
+      <c r="O61" s="8"/>
+      <c r="P61" s="6">
         <v>50</v>
       </c>
       <c r="Q61" s="3">
@@ -5838,8 +5862,8 @@
         <f xml:space="preserve"> ROUND(AVERAGE(data!T71:T72) *100/AVERAGE(data!$Q$69:$Q$70) - 100,2)</f>
         <v>-0.65</v>
       </c>
-      <c r="V61" s="7"/>
-      <c r="W61" s="14">
+      <c r="V61" s="8"/>
+      <c r="W61" s="6">
         <v>50</v>
       </c>
       <c r="X61" s="3">
@@ -5860,121 +5884,166 @@
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
-      <c r="B62" s="15">
+      <c r="A62" s="8"/>
+      <c r="B62" s="7">
         <v>100</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="5">
         <f>AVERAGE(data!C73:C74) - AVERAGE(data!$C$69:$C$70)</f>
         <v>14</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="5">
         <f>AVERAGE(data!D73:D74) - AVERAGE(data!$C$69:$C$70)</f>
         <v>16.5</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="5">
         <f>AVERAGE(data!E73:E74) - AVERAGE(data!$C$69:$C$70)</f>
         <v>21</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="5">
         <f>AVERAGE(data!F73:F74) - AVERAGE(data!$C$69:$C$70)</f>
         <v>37</v>
       </c>
-      <c r="H62" s="7"/>
-      <c r="I62" s="15">
+      <c r="H62" s="8"/>
+      <c r="I62" s="7">
         <v>100</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J62" s="5">
         <f>AVERAGE(data!J73:J74) - AVERAGE(data!$C$69:$C$70)</f>
         <v>26</v>
       </c>
-      <c r="K62" s="13">
+      <c r="K62" s="5">
         <f>AVERAGE(data!K73:K74) - AVERAGE(data!$C$69:$C$70)</f>
         <v>39</v>
       </c>
-      <c r="L62" s="13">
+      <c r="L62" s="5">
         <f>AVERAGE(data!L73:L74) - AVERAGE(data!$C$69:$C$70)</f>
         <v>39</v>
       </c>
-      <c r="M62" s="13">
+      <c r="M62" s="5">
         <f>AVERAGE(data!M73:M74) - AVERAGE(data!$C$69:$C$70)</f>
         <v>56.5</v>
       </c>
-      <c r="O62" s="7"/>
-      <c r="P62" s="15">
+      <c r="O62" s="8"/>
+      <c r="P62" s="7">
         <v>100</v>
       </c>
-      <c r="Q62" s="13">
+      <c r="Q62" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!Q73:Q74) *100/AVERAGE(data!$Q$69:$Q$70) - 100,2)</f>
         <v>-24.77</v>
       </c>
-      <c r="R62" s="13">
+      <c r="R62" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!R73:R74) *100/AVERAGE(data!$Q$69:$Q$70) - 100,2)</f>
         <v>-23.08</v>
       </c>
-      <c r="S62" s="13">
+      <c r="S62" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!S73:S74) *100/AVERAGE(data!$Q$69:$Q$70) - 100,2)</f>
         <v>-23.64</v>
       </c>
-      <c r="T62" s="13">
+      <c r="T62" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!T73:T74) *100/AVERAGE(data!$Q$69:$Q$70) - 100,2)</f>
         <v>-25.42</v>
       </c>
-      <c r="V62" s="7"/>
-      <c r="W62" s="15">
+      <c r="V62" s="8"/>
+      <c r="W62" s="7">
         <v>100</v>
       </c>
-      <c r="X62" s="13">
+      <c r="X62" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!X73:X74) *100/AVERAGE(data!$Q$69:$Q$70) - 100,2)</f>
         <v>-35.81</v>
       </c>
-      <c r="Y62" s="13">
+      <c r="Y62" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!Y73:Y74) *100/AVERAGE(data!$Q$69:$Q$70) - 100,2)</f>
         <v>-35.65</v>
       </c>
-      <c r="Z62" s="13">
+      <c r="Z62" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!Z73:Z74) *100/AVERAGE(data!$Q$69:$Q$70) - 100,2)</f>
         <v>-25.17</v>
       </c>
-      <c r="AA62" s="13">
+      <c r="AA62" s="5">
         <f xml:space="preserve"> ROUND(AVERAGE(data!AA73:AA74) *100/AVERAGE(data!$Q$69:$Q$70) - 100,2)</f>
         <v>-23.92</v>
       </c>
     </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="16"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="V60:V62"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="O60:O62"/>
-    <mergeCell ref="A56:M56"/>
-    <mergeCell ref="O56:AA56"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="Q58:T58"/>
-    <mergeCell ref="X58:AA58"/>
-    <mergeCell ref="V49:V54"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="W51:W52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="H49:H54"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="O49:O54"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="A45:M45"/>
-    <mergeCell ref="O45:AA45"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="Q47:T47"/>
-    <mergeCell ref="X47:AA47"/>
+  <mergeCells count="91">
+    <mergeCell ref="A64:AA64"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="A2:AA2"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="O4:AA4"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="O6:AA6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="O14:AA14"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="X16:AA16"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="H18:H23"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="O18:O23"/>
+    <mergeCell ref="V18:V23"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="V29:V31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="O29:O31"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="O25:AA25"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="X27:AA27"/>
     <mergeCell ref="V41:V43"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="H41:H43"/>
@@ -5988,51 +6057,38 @@
     <mergeCell ref="J39:M39"/>
     <mergeCell ref="Q39:T39"/>
     <mergeCell ref="X39:AA39"/>
-    <mergeCell ref="V29:V31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="O29:O31"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="O25:AA25"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="V18:V23"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="H18:H23"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="O18:O23"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="O14:AA14"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="X16:AA16"/>
-    <mergeCell ref="V10:V12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="A2:AA2"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="O4:AA4"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="O6:AA6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="O45:AA45"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="Q47:T47"/>
+    <mergeCell ref="X47:AA47"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="H49:H54"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="O49:O54"/>
+    <mergeCell ref="V49:V54"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="W51:W52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="V60:V62"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="O60:O62"/>
+    <mergeCell ref="A56:M56"/>
+    <mergeCell ref="O56:AA56"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="Q58:T58"/>
+    <mergeCell ref="X58:AA58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
